--- a/Assets/06.Table/MonthlyPassAttend.xlsx
+++ b/Assets/06.Table/MonthlyPassAttend.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C730D3BA-F364-4792-9069-44EB55BEDE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8660F92-904A-4EE4-8A8A-7923DC87916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,16 +500,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>1500</v>
+        <v>100000000</v>
       </c>
       <c r="E2" s="1">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>1500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -520,16 +520,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>300</v>
+        <v>20000000000</v>
       </c>
       <c r="E3" s="1">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>300</v>
+        <v>20000000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -540,16 +540,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="E4" s="1">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
-        <v>300</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -560,16 +560,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>9001</v>
+        <v>9010</v>
       </c>
       <c r="D5" s="1">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="E5" s="1">
-        <v>9001</v>
+        <v>9010</v>
       </c>
       <c r="F5" s="1">
-        <v>300</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -579,17 +579,17 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
-        <v>9008</v>
-      </c>
-      <c r="D6" s="2">
-        <v>300</v>
-      </c>
-      <c r="E6" s="2">
-        <v>9008</v>
-      </c>
-      <c r="F6" s="2">
-        <v>300</v>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -600,16 +600,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>9010</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>500</v>
+        <v>20000000000</v>
       </c>
       <c r="E7" s="1">
-        <v>9010</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>500</v>
+        <v>20000000000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -620,16 +620,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>1291</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1292</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
+        <v>60000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1">
+        <v>60000</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -640,16 +640,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>46</v>
+        <v>9010</v>
       </c>
       <c r="D9" s="1">
-        <v>1500</v>
+        <v>20000</v>
       </c>
       <c r="E9" s="1">
-        <v>46</v>
+        <v>9010</v>
       </c>
       <c r="F9" s="1">
-        <v>1500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -660,16 +660,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>300</v>
+        <v>100000000</v>
       </c>
       <c r="E10" s="1">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>300</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -680,16 +680,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>300</v>
+        <v>20000000000</v>
       </c>
       <c r="E11" s="1">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>300</v>
+        <v>20000000000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -700,16 +700,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>9001</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="E12" s="1">
-        <v>9001</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1">
-        <v>300</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -719,17 +719,17 @@
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
-        <v>9008</v>
-      </c>
-      <c r="D13" s="2">
-        <v>300</v>
-      </c>
-      <c r="E13" s="2">
-        <v>9008</v>
-      </c>
-      <c r="F13" s="2">
-        <v>300</v>
+      <c r="C13" s="1">
+        <v>9010</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9010</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -740,16 +740,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>9010</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>500</v>
+        <v>100000000</v>
       </c>
       <c r="E14" s="1">
-        <v>9010</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1">
-        <v>500</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -760,16 +760,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>1500</v>
+        <v>20000000000</v>
       </c>
       <c r="E15" s="1">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>1500</v>
+        <v>20000000000</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -780,16 +780,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="E16" s="1">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1">
-        <v>300</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -800,16 +800,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>88</v>
+        <v>9010</v>
       </c>
       <c r="D17" s="1">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="E17" s="1">
-        <v>88</v>
+        <v>9010</v>
       </c>
       <c r="F17" s="1">
-        <v>300</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -820,16 +820,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>9001</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>300</v>
+        <v>100000000</v>
       </c>
       <c r="E18" s="1">
-        <v>9001</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>300</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -839,17 +839,17 @@
       <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="2">
-        <v>9008</v>
-      </c>
-      <c r="D19" s="2">
-        <v>300</v>
-      </c>
-      <c r="E19" s="2">
-        <v>9008</v>
-      </c>
-      <c r="F19" s="2">
-        <v>300</v>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>20000000000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -860,16 +860,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>9010</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1">
-        <v>500</v>
+        <v>60000</v>
       </c>
       <c r="E20" s="1">
-        <v>9010</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1">
-        <v>500</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -880,16 +880,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>46</v>
+        <v>9010</v>
       </c>
       <c r="D21" s="1">
-        <v>1500</v>
+        <v>20000</v>
       </c>
       <c r="E21" s="1">
-        <v>46</v>
+        <v>9010</v>
       </c>
       <c r="F21" s="1">
-        <v>1500</v>
+        <v>20000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MonthlyPassAttend.xlsx
+++ b/Assets/06.Table/MonthlyPassAttend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8660F92-904A-4EE4-8A8A-7923DC87916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2FADEB-7E4D-4A9E-971B-CEF663683051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPassAttend" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,13 +503,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -523,13 +523,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>20000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>20000000000</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -543,13 +543,13 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="E4" s="1">
         <v>30</v>
       </c>
       <c r="F4" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -563,13 +563,13 @@
         <v>9010</v>
       </c>
       <c r="D5" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E5" s="1">
         <v>9010</v>
       </c>
       <c r="F5" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -583,13 +583,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,13 +603,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>20000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>20000000000</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -623,13 +623,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -643,13 +643,13 @@
         <v>9010</v>
       </c>
       <c r="D9" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E9" s="1">
         <v>9010</v>
       </c>
       <c r="F9" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -663,13 +663,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -683,13 +683,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>20000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>20000000000</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -703,13 +703,13 @@
         <v>30</v>
       </c>
       <c r="D12" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="E12" s="1">
         <v>30</v>
       </c>
       <c r="F12" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -723,13 +723,13 @@
         <v>9010</v>
       </c>
       <c r="D13" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E13" s="1">
         <v>9010</v>
       </c>
       <c r="F13" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -743,13 +743,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -763,13 +763,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>20000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>20000000000</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -783,13 +783,13 @@
         <v>30</v>
       </c>
       <c r="D16" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="E16" s="1">
         <v>30</v>
       </c>
       <c r="F16" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -803,13 +803,13 @@
         <v>9010</v>
       </c>
       <c r="D17" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E17" s="1">
         <v>9010</v>
       </c>
       <c r="F17" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -823,13 +823,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,13 +843,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>20000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>20000000000</v>
+        <v>40000000000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -863,13 +863,13 @@
         <v>30</v>
       </c>
       <c r="D20" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="E20" s="1">
         <v>30</v>
       </c>
       <c r="F20" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -883,13 +883,13 @@
         <v>9010</v>
       </c>
       <c r="D21" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E21" s="1">
         <v>9010</v>
       </c>
       <c r="F21" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
